--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>mails versturen organisme opdrachtgever</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>Host server installeren</t>
+  </si>
+  <si>
+    <t>Controllers schrijven</t>
+  </si>
+  <si>
+    <t>Service schrijven</t>
+  </si>
+  <si>
+    <t>Databank vullen</t>
+  </si>
+  <si>
+    <t>Update schrijven</t>
   </si>
 </sst>
 </file>
@@ -528,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,7 +933,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>42059</v>
+        <v>42061</v>
       </c>
       <c r="B47" s="4">
         <v>5</v>
@@ -933,9 +951,11 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>42060</v>
-      </c>
-      <c r="B49" s="4"/>
+        <v>42062</v>
+      </c>
+      <c r="B49" s="4">
+        <v>10</v>
+      </c>
       <c r="C49" s="5" t="s">
         <v>39</v>
       </c>
@@ -957,42 +977,62 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="3">
+        <v>42063</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\OMANproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitBioDiversity_Oman\ProjectOman\Doc\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Update schrijven</t>
+  </si>
+  <si>
+    <t>forms</t>
+  </si>
+  <si>
+    <t>Update s</t>
+  </si>
+  <si>
+    <t>Host problemen</t>
   </si>
 </sst>
 </file>
@@ -544,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,14 +1044,62 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B60" s="4">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>42037</v>
+      </c>
+      <c r="B64" s="4">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Host problemen</t>
+  </si>
+  <si>
+    <t>dropdown listen vullen naar data</t>
+  </si>
+  <si>
+    <t>many to many dropdownlsiten vullen: opgelost door Lenny, Eric, Oualid</t>
   </si>
 </sst>
 </file>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,19 +1093,52 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="3">
+        <v>42038</v>
+      </c>
+      <c r="B65" s="4">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -183,6 +183,30 @@
   </si>
   <si>
     <t>many to many dropdownlsiten vullen: opgelost door Lenny, Eric, Oualid</t>
+  </si>
+  <si>
+    <t>extra button to add</t>
+  </si>
+  <si>
+    <t>extra dal</t>
+  </si>
+  <si>
+    <t>implementatie legende</t>
+  </si>
+  <si>
+    <t>extra service for validated: samen met lenny</t>
+  </si>
+  <si>
+    <t>fix van merge</t>
+  </si>
+  <si>
+    <t>debug broken div</t>
+  </si>
+  <si>
+    <t>zoek functies samen met Lenny</t>
+  </si>
+  <si>
+    <t>zoeken naar icon methodes</t>
   </si>
 </sst>
 </file>
@@ -559,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,34 +1135,88 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="3">
+        <v>42067</v>
+      </c>
+      <c r="B67" s="4">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
+      <c r="A71" s="3">
+        <v>42068</v>
+      </c>
+      <c r="B71" s="4">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
+      <c r="C72" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -586,7 +586,7 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1171,7 @@
         <v>42068</v>
       </c>
       <c r="B71" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>57</v>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>zoeken naar icon methodes</t>
+  </si>
+  <si>
+    <t>validatie txt field samen met Eric</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1204,9 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>validatie txt field samen met Eric</t>
+  </si>
+  <si>
+    <t>food van organism</t>
+  </si>
+  <si>
+    <t>many to many dropdownlsiten food vullen samen lenny, Eric Bert</t>
   </si>
 </sst>
 </file>
@@ -586,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,19 +1215,64 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
+      <c r="A76" s="3">
+        <v>42041</v>
+      </c>
+      <c r="B76" s="4">
+        <v>9</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
+      <c r="C77" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -128,9 +128,6 @@
     <t>Tijd in uur</t>
   </si>
   <si>
-    <t xml:space="preserve">Onderwerpen: </t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -212,7 +209,10 @@
     <t>food van organism</t>
   </si>
   <si>
-    <t>many to many dropdownlsiten food vullen samen lenny, Eric Bert</t>
+    <t>Onderwerpen</t>
+  </si>
+  <si>
+    <t>many to many dropdownlsiten food vullen samen lenny, Eric, Bert</t>
   </si>
 </sst>
 </file>
@@ -379,16 +379,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3352800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1205737</xdr:colOff>
+      <xdr:colOff>6273037</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>719390</xdr:rowOff>
+      <xdr:rowOff>810830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -405,7 +405,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="5067300" y="91440"/>
           <a:ext cx="2920237" cy="719390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -417,16 +417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1325880</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6141720</xdr:colOff>
+      <xdr:colOff>3169920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1623061</xdr:rowOff>
+      <xdr:rowOff>1661161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -437,7 +437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3040380" y="1"/>
+          <a:off x="68580" y="38101"/>
           <a:ext cx="4815840" cy="1623060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,13 +963,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1354,42 +1354,42 @@
         <v>10</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1400,35 +1400,35 @@
         <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1439,28 +1439,28 @@
         <v>10</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1482,14 +1482,14 @@
         <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1500,28 +1500,28 @@
         <v>6</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1532,35 +1532,35 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1571,14 +1571,14 @@
         <v>9</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>many to many dropdownlsiten food vullen samen lenny, Eric, Bert</t>
+  </si>
+  <si>
+    <t>delete buttons bootstrap met Lenny en Eric</t>
+  </si>
+  <si>
+    <t>Is exist checks</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>github problemen</t>
+  </si>
+  <si>
+    <t>Db fouten verbeterd</t>
   </si>
 </sst>
 </file>
@@ -946,7 +961,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,29 +1604,43 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="2">
+        <v>42042</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -228,6 +228,30 @@
   </si>
   <si>
     <t>Db fouten verbeterd</t>
+  </si>
+  <si>
+    <t>check dubble entry on name</t>
+  </si>
+  <si>
+    <t>delete functions</t>
+  </si>
+  <si>
+    <t>FK problemen</t>
+  </si>
+  <si>
+    <t>DB aangepast</t>
+  </si>
+  <si>
+    <t>dubble confirmatie</t>
+  </si>
+  <si>
+    <t>sql injection prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image map </t>
+  </si>
+  <si>
+    <t>photoshop images</t>
   </si>
 </sst>
 </file>
@@ -958,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1472,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B60" s="3">
         <v>10</v>
@@ -1480,7 +1504,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>42037</v>
+        <v>42065</v>
       </c>
       <c r="B64" s="3">
         <v>4</v>
@@ -1491,7 +1515,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>42038</v>
+        <v>42066</v>
       </c>
       <c r="B65" s="3">
         <v>9</v>
@@ -1580,7 +1604,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>42041</v>
+        <v>42069</v>
       </c>
       <c r="B76" s="3">
         <v>9</v>
@@ -1605,7 +1629,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>42042</v>
+        <v>42070</v>
       </c>
       <c r="B79" s="3">
         <v>6</v>
@@ -1643,14 +1667,108 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="2">
+        <v>42071</v>
+      </c>
+      <c r="B84" s="3">
+        <v>6</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
+      <c r="A85" s="2"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>42072</v>
+      </c>
+      <c r="B86" s="3">
+        <v>8</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>42076</v>
+      </c>
+      <c r="B90" s="3">
+        <v>9</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>42077</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>photoshop images</t>
+  </si>
+  <si>
+    <t>veranderen datasource</t>
+  </si>
+  <si>
+    <t>calender</t>
+  </si>
+  <si>
+    <t>kleuren</t>
   </si>
 </sst>
 </file>
@@ -982,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1754,9 @@
       <c r="A93" s="2">
         <v>42077</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="3">
+        <v>8</v>
+      </c>
       <c r="C93" s="4" t="s">
         <v>74</v>
       </c>
@@ -1753,22 +1764,55 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="2">
+        <v>42078</v>
+      </c>
+      <c r="B95" s="3">
+        <v>8</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="2">
+        <v>42079</v>
+      </c>
+      <c r="B97" s="3">
+        <v>7</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>kleuren</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>datasource</t>
   </si>
 </sst>
 </file>
@@ -991,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,14 +1811,35 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>42080</v>
+      </c>
       <c r="B99" s="3"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
+      <c r="A100" s="2"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -266,7 +266,13 @@
     <t>bootstrap</t>
   </si>
   <si>
-    <t>datasource</t>
+    <t xml:space="preserve">zoek functies </t>
+  </si>
+  <si>
+    <t>datasource samen met Lenny</t>
+  </si>
+  <si>
+    <t>zoeken naar gebroken td/icoon samen met Eric</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1820,9 @@
       <c r="A99" s="2">
         <v>42080</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3">
+        <v>8</v>
+      </c>
       <c r="C99" s="4" t="s">
         <v>79</v>
       </c>
@@ -1823,23 +1831,37 @@
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
+      <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>zoeken naar gebroken td/icoon samen met Eric</t>
+  </si>
+  <si>
+    <t>zoeken naar gebroken td samen met Lenny</t>
+  </si>
+  <si>
+    <t>organisms in de jusite wereld</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,19 +1855,55 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
+      <c r="A103" s="2">
+        <v>42083</v>
+      </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
+      <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -278,7 +278,10 @@
     <t>zoeken naar gebroken td samen met Lenny</t>
   </si>
   <si>
-    <t>organisms in de jusite wereld</t>
+    <t>links in werelden</t>
+  </si>
+  <si>
+    <t>organisms in de juiste wereld</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1015,7 @@
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,7 +1861,9 @@
       <c r="A103" s="2">
         <v>42083</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="3">
+        <v>8</v>
+      </c>
       <c r="C103" s="4" t="s">
         <v>83</v>
       </c>
@@ -1867,13 +1872,15 @@
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>organisms in de juiste wereld</t>
+  </si>
+  <si>
+    <t>links in werelden werken enkel in firefox/oplossing zoeken met lenny</t>
+  </si>
+  <si>
+    <t>databank aanpassen</t>
+  </si>
+  <si>
+    <t>griekse texten terug zetten voor opdrachtgever na fix van Lenny en Eric</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1024,7 @@
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,19 +1892,29 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
+      <c r="A106" s="2">
+        <v>42084</v>
+      </c>
+      <c r="B106" s="3">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>griekse texten terug zetten voor opdrachtgever na fix van Lenny en Eric</t>
+  </si>
+  <si>
+    <t>zoeken voor oplossingen bugs</t>
+  </si>
+  <si>
+    <t>subscriber toevoegen</t>
+  </si>
+  <si>
+    <t>UX breed in organism</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1917,19 +1926,67 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="2">
+        <v>42086</v>
+      </c>
+      <c r="B109" s="3">
+        <v>4</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
+      <c r="A111" s="2">
+        <v>42088</v>
+      </c>
+      <c r="B111" s="3">
+        <v>4</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>42089</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>UX breed in organism</t>
+  </si>
+  <si>
+    <t>terug navigatie</t>
+  </si>
+  <si>
+    <t>Facebook plugin beter leren kennen</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1958,7 +1964,9 @@
       <c r="A112" s="2">
         <v>42089</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="3">
+        <v>8</v>
+      </c>
       <c r="C112" s="4" t="s">
         <v>91</v>
       </c>
@@ -1966,12 +1974,18 @@
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
+      <c r="A114" s="2">
+        <v>42090</v>
+      </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
@@ -1984,9 +1998,14 @@
       <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="3"/>
+      <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Facebook plugin beter leren kennen</t>
+  </si>
+  <si>
+    <t>UX</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,18 +1985,23 @@
       <c r="A114" s="2">
         <v>42090</v>
       </c>
-      <c r="B114" s="3"/>
+      <c r="B114" s="3">
+        <v>6</v>
+      </c>
       <c r="C114" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
+      <c r="A116" s="2">
+        <v>42091</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
     </row>
@@ -2003,9 +2011,19 @@
       <c r="C117" s="4"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="3"/>
+      <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>UX</t>
+  </si>
+  <si>
+    <t>Facebook plugin veranderen, met Eric</t>
+  </si>
+  <si>
+    <t>Oplossing zoeken voor detailpage terug navigatie met Eric</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1048,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,13 +2008,19 @@
       <c r="A116" s="2">
         <v>42091</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="4"/>
+      <c r="B116" s="3">
+        <v>6</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>Oplossing zoeken voor detailpage terug navigatie met Eric</t>
+  </si>
+  <si>
+    <t>Downloads maken</t>
+  </si>
+  <si>
+    <t>FIX zoeken voor IE</t>
+  </si>
+  <si>
+    <t>About us</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,19 +2032,59 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="4"/>
+      <c r="A118" s="2">
+        <v>42112</v>
+      </c>
+      <c r="B118" s="3">
+        <v>8</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="3"/>
+      <c r="A120" s="2"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="4"/>
+      <c r="C120" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>About us</t>
+  </si>
+  <si>
+    <t>server problemen</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
   <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2059,7 +2062,9 @@
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>server problemen</t>
+  </si>
+  <si>
+    <t>19/042015</t>
+  </si>
+  <si>
+    <t>kleine veranderingen aan downloads naar opdrachtgever wens</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2067,19 +2073,37 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="4"/>
+      <c r="A122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="4"/>
+      <c r="A123" s="2">
+        <v>42116</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="4"/>
+      <c r="A124" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>kleine veranderingen aan downloads naar opdrachtgever wens</t>
+  </si>
+  <si>
+    <t>Documentatie</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,14 +2109,35 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="4"/>
+      <c r="A125" s="2">
+        <v>42131</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
+      <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,14 +2120,26 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="4"/>
+      <c r="A126" s="2">
+        <v>42132</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="4"/>
+      <c r="A127" s="2">
+        <v>42133</v>
+      </c>
+      <c r="B127" s="3">
+        <v>4</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Documentatie</t>
+  </si>
+  <si>
+    <t>18/0/2015</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,14 +2145,46 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="4"/>
+      <c r="A128" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="4"/>
+      <c r="A129" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>Documentatie</t>
-  </si>
-  <si>
-    <t>18/0/2015</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,8 +2153,8 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>104</v>
+      <c r="A129" s="2">
+        <v>42142</v>
       </c>
       <c r="B129" s="3">
         <v>4</v>

--- a/Doc/Logboeken/Logbook_Tom.xlsx
+++ b/Doc/Logboeken/Logbook_Tom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitBioDiversity_Oman\ProjectOman\Doc\Logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitGitGit\ProjectOman\Doc\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t xml:space="preserve">Meeting </t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Documentatie</t>
+  </si>
+  <si>
+    <t>Persoonlijk Dossier</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2164,24 +2167,52 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="4"/>
+      <c r="A130" s="2">
+        <v>42148</v>
+      </c>
+      <c r="B130" s="3">
+        <v>4</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="4"/>
+      <c r="A131" s="2">
+        <v>42149</v>
+      </c>
+      <c r="B131" s="3">
+        <v>5</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="4"/>
+      <c r="A132" s="2">
+        <v>42155</v>
+      </c>
+      <c r="B132" s="3">
+        <v>4</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
+      <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
